--- a/FinalProject/Extdata/NewCustomer.xlsx
+++ b/FinalProject/Extdata/NewCustomer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>m@gmail.com</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>tom@gmail.com</t>
+  </si>
+  <si>
+    <t>Zimmy</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>young@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -53,7 +71,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,7 +83,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,7 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,6 +109,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -99,16 +148,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,15 +158,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,16 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,28 +212,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,6 +424,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,6 +467,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -457,54 +507,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -513,157 +515,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,13 +994,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="15.1428571428571" customWidth="1"/>
@@ -1029,6 +1040,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
